--- a/girls.xlsx
+++ b/girls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Diana Alibek</t>
   </si>
@@ -32,6 +32,74 @@
   </si>
   <si>
     <t xml:space="preserve">Жанна Алмазова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serkali Aray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Қазак символы</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ә</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">біл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">қ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">асымова Дулат</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">қ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ызы</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -41,11 +109,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -61,6 +130,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,8 +188,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -119,6 +210,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF6A8759"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -127,44 +278,68 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
